--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60621.15990098712</v>
+        <v>11955070.19898907</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60621.15990098712</v>
+        <v>11955070.19898907</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48203.39725040137</v>
+        <v>5828378.615036508</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48203.39725040137</v>
+        <v>5828378.615036508</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609755750.550332</v>
+        <v>61190677.30388194</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13172.62080970985</v>
+        <v>1405531.389226814</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25586.30248552586</v>
+        <v>2707151.736879912</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37984.46254518023</v>
+        <v>4005683.28291685</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52255.63736125492</v>
+        <v>5037473.087791926</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65507.73468887693</v>
+        <v>6215209.862639252</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78759.83201649894</v>
+        <v>7392946.637486578</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92232.75500001795</v>
+        <v>8733578.500749784</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105497.7991956582</v>
+        <v>10032842.48522511</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119610.183443652</v>
+        <v>11071749.68284361</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131990.7770596798</v>
+        <v>12390262.91063447</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144386.8922918372</v>
+        <v>13711864.94004341</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156780.7570559541</v>
+        <v>15033258.85894892</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169175.1761635055</v>
+        <v>16354763.09219787</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184270.04556436</v>
+        <v>17308041.8759983</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203836.4781450159</v>
+        <v>17456226.95940082</v>
       </c>
     </row>
   </sheetData>
